--- a/outputs-HGR-r202/test-g__Clostridium_A_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Clostridium_A_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
   <si>
     <t>Row</t>
   </si>
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -83,14 +83,58 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,121 +153,121 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.018851785135483468</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-0.18916947023327602</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-0.28751753218624998</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-0.15706924481213314</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-0.0799342868630184</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-0.1850295281991059</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>-0.23046933680048198</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>-0.30976566846797837</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>-0.14530143628924108</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.042806602233532942</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__Clostridium_A_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Clostridium_A_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Row</t>
   </si>
@@ -31,19 +31,10 @@
     <t>even_MAG-GUT53065.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT58318.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT60874.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT61416.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT7733.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT85136.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT9681.fa</t>
@@ -73,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,58 +74,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,7 +91,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -153,18 +100,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>12</v>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -175,7 +122,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -186,7 +133,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -197,7 +144,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -208,68 +155,35 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.0799342868630184</v>
+        <v>-0.1850295281991059</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.1850295281991059</v>
+        <v>-0.30976566846797837</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.23046933680048198</v>
+        <v>0.042806602233532942</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-0.30976566846797837</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-0.14530143628924108</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.042806602233532942</v>
-      </c>
-      <c r="C11">
         <v>1</v>
       </c>
     </row>
